--- a/biology/Botanique/Phylus_coryli/Phylus_coryli.xlsx
+++ b/biology/Botanique/Phylus_coryli/Phylus_coryli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Capside du Noisetier
-Phylus coryli, le Capside du Noisetier, est une espèce de punaises de la famille des Miridae. Elle est répandue en Europe jusqu'au Caucase à l'est, mais elle est absente dans certaines parties du sud de l'Europe[1]. Elle a été introduite en Amérique du Nord.
+Phylus coryli, le Capside du Noisetier, est une espèce de punaises de la famille des Miridae. Elle est répandue en Europe jusqu'au Caucase à l'est, mais elle est absente dans certaines parties du sud de l'Europe. Elle a été introduite en Amérique du Nord.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce mesure 4,5-5,5 millimètres de long et a des hémélytres de couleur brun clair à noir tandis que son cuneus est souvent rougeâtre[2].
-Phylus coryli se nourrit de la sève du Noisetier commun (Corylus avellana) et complète parfois son régime par des pucerons (Myzocallis coryli et Corylobium avellanae)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce mesure 4,5-5,5 millimètres de long et a des hémélytres de couleur brun clair à noir tandis que son cuneus est souvent rougeâtre.
+Phylus coryli se nourrit de la sève du Noisetier commun (Corylus avellana) et complète parfois son régime par des pucerons (Myzocallis coryli et Corylobium avellanae).
 </t>
         </is>
       </c>
@@ -544,11 +558,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Phylus coryli (Linnaeus, 1758)[4].
-L'espèce a été initialement classée dans le genre Cimex sous le protonyme Cimex coryli Linnaeus, 1758[4].
-Phylus coryli a pour synonymes[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Phylus coryli (Linnaeus, 1758).
+L'espèce a été initialement classée dans le genre Cimex sous le protonyme Cimex coryli Linnaeus, 1758.
+Phylus coryli a pour synonymes :
 Capsus avellanae H.Meyer-Dur, 1841
 Capsus avellanae Meyer, 1888
 Cimex coryli Linnaeus, 1758
